--- a/src/main/java/org/sayem/xls/TestCases.xlsx
+++ b/src/main/java/org/sayem/xls/TestCases.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>LoginTest</t>
   </si>
@@ -24,9 +22,6 @@
     <t>TCID</t>
   </si>
   <si>
-    <t>Runmode</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -40,61 +35,13 @@
   </si>
   <si>
     <t>SearchTest</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>its.thakur@gmail.com</t>
-  </si>
-  <si>
-    <t>affirm123</t>
-  </si>
-  <si>
-    <t>abc@rediff.com</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>xxxx</t>
-  </si>
-  <si>
-    <t>yyyy</t>
-  </si>
-  <si>
-    <t>Pic_Location</t>
-  </si>
-  <si>
-    <t>Rumode</t>
-  </si>
-  <si>
-    <t>C:\\abc.jpg</t>
-  </si>
-  <si>
-    <t>Vishnu Prabhakar</t>
-  </si>
-  <si>
-    <t>Friend_Name</t>
-  </si>
-  <si>
-    <t>Annie</t>
-  </si>
-  <si>
-    <t>Rakesh</t>
-  </si>
-  <si>
-    <t>Flag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,19 +50,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -127,18 +66,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -161,27 +100,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -260,6 +229,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -294,6 +264,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,215 +440,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="6" width="14.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="3" customFormat="1">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="3" customFormat="1">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>